--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2157465.458097387</v>
+        <v>2155213.378386179</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7740905403535</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>184.4530101301283</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>10.86992633787642</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.5922292904584</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886856425</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814216</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>50.80543121045572</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888062</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>133.3064973326883</v>
+        <v>139.175595971222</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.9503019954242</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187889</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458449</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187869</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977442</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605717069</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576178</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>160.1597912951069</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.40444476188502</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.68827782033961</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S37" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3028.99898128765</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3028.99898128765</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.936093944079</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.6952191369613</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1916.314824514879</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1694.548209084405</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1405.445342210049</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.760854004162</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>861.3436839672011</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>861.3436839672011</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="Y4" t="n">
-        <v>861.3436839672011</v>
+        <v>382.1280466398575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1372.692973858074</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.692973858074</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1372.692973858074</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1144.703422960057</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>923.9108438165264</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.124011696101</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>994.1614947556889</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>635.8957961489384</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>250.1075435506942</v>
+        <v>553.6195264050923</v>
       </c>
       <c r="F8" t="n">
-        <v>243.1620428014907</v>
+        <v>546.6740256558888</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267228</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736034</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760222</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168635</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075816</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>244.2098454714565</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,16 +5285,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5543,22 +5543,22 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,7 +5768,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908938</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876711</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597642</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597642</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597642</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597642</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782976</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.340348461441</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179108</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>564.2944057524141</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7321,13 +7321,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7369,13 +7369,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075794</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944527</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667947</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405068</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631857109</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>65.54986409393027</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187169</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259164</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459132</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837084.3681224533</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516056</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752542</v>
@@ -26347,7 +26347,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813261</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.0882867811</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678118</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678119</v>
       </c>
-      <c r="G4" t="n">
-        <v>10557.08828678111</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.0882867811</v>
-      </c>
       <c r="I4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678114</v>
       </c>
-      <c r="J4" t="n">
-        <v>10557.08828678121</v>
-      </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26451,7 +26451,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931167.5261955125</v>
+        <v>-931167.5261955129</v>
       </c>
       <c r="C6" t="n">
-        <v>397577.2195320795</v>
+        <v>397577.2195320798</v>
       </c>
       <c r="D6" t="n">
-        <v>397577.2195320795</v>
+        <v>397577.2195320796</v>
       </c>
       <c r="E6" t="n">
-        <v>148089.2048572105</v>
+        <v>148054.4669317749</v>
       </c>
       <c r="F6" t="n">
-        <v>473501.6666645655</v>
+        <v>473466.9287391305</v>
       </c>
       <c r="G6" t="n">
-        <v>473501.6666645666</v>
+        <v>473466.9287391301</v>
       </c>
       <c r="H6" t="n">
-        <v>473501.6666645663</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="I6" t="n">
-        <v>473501.6666645664</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="J6" t="n">
-        <v>255970.4642672883</v>
+        <v>255935.726341853</v>
       </c>
       <c r="K6" t="n">
-        <v>473501.666664566</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="L6" t="n">
-        <v>473501.6666645659</v>
+        <v>473466.9287391301</v>
       </c>
       <c r="M6" t="n">
-        <v>388446.6387290541</v>
+        <v>388411.9008036185</v>
       </c>
       <c r="N6" t="n">
-        <v>473501.6666645662</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="O6" t="n">
-        <v>473501.666664566</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="P6" t="n">
-        <v>473501.666664566</v>
+        <v>473466.9287391303</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306541</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>19.4649600094919</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.8990989935655</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>19.11742609857876</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319973</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803269</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>235.4064069951572</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>73.85778156328857</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>277.6152283207651</v>
+        <v>271.7461296822315</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320364</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.266523520590673e-12</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29086,13 +29086,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526263</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727245</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>353.3934907042769</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32242,7 +32242,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159428</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32546,25 +32546,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>553.3925020622929</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>652.3203287778402</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34205,19 +34205,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34442,34 +34442,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>506.5895320981975</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507062</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>219.4190832899467</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35890,7 +35890,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790071</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295531</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>414.8381222824187</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>520.978616694507</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
